--- a/biology/Histoire de la zoologie et de la botanique/Jean_Cuvillier/Jean_Cuvillier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Cuvillier/Jean_Cuvillier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Cuvillier (1899-1969) est un micropaléontologue français.
 Il a créé un enseignement nouveau de micropaléontologie en réponse aux besoins de l'industrie de l'eau et du pétrole, et a subséquemment formé un grand nombre de spécialistes. Il est à l'origine du Centre d'études de micropaléontologie appliquée du C.N.R.S., du laboratoire de micropaléontologie où est enseigné un 3e cycle, et de la chaire de micropaléontologie.
@@ -512,28 +524,20 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il naît à Ambleteuse dans le Pas-de-Calais le 16 février 1899[1], dans une famille d'instituteurs. Il passe son enfance en Picardie[2] où il est élève à l'École normale d'instituteurs d'Arras, puis obtient son baccalauréat à Rouen[1]. Il fait des études supérieures à la Sorbonne et obtient sa licence ès sciences naturelles en 1922[2].
-La même année (1922), il est nommé professeur au lycée français du Caire ; il y enseigne jusqu'en 1930[2] et y est secrétaire général de l'Institut d'Égypte de 1933 à 1938[1]. 
-Dans le même temps, sur le conseil de ses maîtres Émile Haug et le père Teilhard de Chardin il entreprend un doctorat d'État[2] titré Révision du Nummulitique égyptien[1],[3] (défini à partir des fossiles stratigraphiques de nummulites, le Nummulitique a été renommé Paléogène), qu'il soutient à l'université de Paris en 1930. Ce travail fait encore autorité[2].
-À partir de 1930, il est détaché en qualité de maître de conférences de géologie à l'université du Caire. Il complète ses observations et ses travaux antérieurs. Pour ces recherches, il reçoit en 1938 le Prix Victor-Raulin attribué par l'Académie des sciences[2].
-En 1938 il est nommé chef de travaux de géologie appliquée et chargé de cours d'hydrogéologie à la Sorbonne[2]. Il s'installe à Paris[1], où il s'occupe de la publication de ses travaux en Égypte et commence à étudier le Nummulitique du bassin parisien, en collaboration avec le professeur Antonin Lanquine[2].
-La guerre arrivant, en 1941 il doit abandonner son poste d'universitaire sur l'ordre du gouvernement de Vichy[2] qui le suspend de ses fonctions en application de la loi antimaçonnique du 11 août 1941[1],[4].
-Il s'établit alors à Dax où la Société Nationale des Pétroles d'Aquitaine (SNPA) lui confie la direction de son laboratoire de stratigraphie[1]. En 1942, il organise pour cette société un laboratoire de géologie et micropaléontologie stratigraphique, toujours à Dax ; à partir de cette date, il commence à développer la micropaléontologie et met l'accent sur l'importance de la micropaléontologie en stratigraphie[2].
-À la Libération, il retrouve son poste de chef de travaux au laboratoire de géologie appliquée. Il est nommé maître de conférences en 1947 et professeur titulaire en 1953. Il enseigne aussi à l'École normale supérieure de Fontenay-aux-Roses de 1939 à 1955, et à l'École nationale supérieure de géologie appliquée de Nancy de 1948 à 1957[2].
-En 1953 il devient conseiller scientifique à la direction générale de la Société nationale des pétroles d'Aquitaine[2].
-Il meurt à Bordeaux le 20 septembre 1969[1].
-Géologue et paléontologue
-Cuvillier a créé et longtemps dirigé l’institut de Micropaléontologie à l’université de Paris, où il a formé de nombreux élèves. Sous sa tutelle, l'institut a mis l'accent sur les foraminifères, les ostracodes, les tintinnides, les acritarches, les coccolithes et de nombreux organismes non déterminés[5].
-Cuvillier s'est particulièrement intéressé à la science des microfaciès. Ses œuvres les plus importantes sont Stratigraphie corrélation by microfacies in Western Aquitaine, Foraminifères d’Aquitaine et Des microfaciès du Paléozoique du Sahara[5].
-Il est à l'origine du Centre d'études de micropaléontologie appliquée du C.N.R.S.[2].
-En 1955 il crée le laboratoire de micropaléontologie, dans lequel est dispensé un enseignement de 3e cycle[2].
-La chaire de micropaléontologie[2] est créée pour lui.
-En 1956 il est président de la Société géologique de France, collaborateur principal au Service de la carte géologique de France[2].
-En 1958, il crée la Revue de micropaléontologie, de diffusion mondiale[2], publiée par le laboratoire de micropaléontologie de l'Université.
-Les collections de Jean Cuvillier contiennent de nombreux assemblages d'algues calcaréeuses du Paléocène de Libye[6].
-Il a dirigé des thèses qui elles aussi ont fait date, comme celle de Vincent Sacal (ou Szakall), Microfaciès du Paléozoïque Saharien[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il naît à Ambleteuse dans le Pas-de-Calais le 16 février 1899, dans une famille d'instituteurs. Il passe son enfance en Picardie où il est élève à l'École normale d'instituteurs d'Arras, puis obtient son baccalauréat à Rouen. Il fait des études supérieures à la Sorbonne et obtient sa licence ès sciences naturelles en 1922.
+La même année (1922), il est nommé professeur au lycée français du Caire ; il y enseigne jusqu'en 1930 et y est secrétaire général de l'Institut d'Égypte de 1933 à 1938. 
+Dans le même temps, sur le conseil de ses maîtres Émile Haug et le père Teilhard de Chardin il entreprend un doctorat d'État titré Révision du Nummulitique égyptien, (défini à partir des fossiles stratigraphiques de nummulites, le Nummulitique a été renommé Paléogène), qu'il soutient à l'université de Paris en 1930. Ce travail fait encore autorité.
+À partir de 1930, il est détaché en qualité de maître de conférences de géologie à l'université du Caire. Il complète ses observations et ses travaux antérieurs. Pour ces recherches, il reçoit en 1938 le Prix Victor-Raulin attribué par l'Académie des sciences.
+En 1938 il est nommé chef de travaux de géologie appliquée et chargé de cours d'hydrogéologie à la Sorbonne. Il s'installe à Paris, où il s'occupe de la publication de ses travaux en Égypte et commence à étudier le Nummulitique du bassin parisien, en collaboration avec le professeur Antonin Lanquine.
+La guerre arrivant, en 1941 il doit abandonner son poste d'universitaire sur l'ordre du gouvernement de Vichy qui le suspend de ses fonctions en application de la loi antimaçonnique du 11 août 1941,.
+Il s'établit alors à Dax où la Société Nationale des Pétroles d'Aquitaine (SNPA) lui confie la direction de son laboratoire de stratigraphie. En 1942, il organise pour cette société un laboratoire de géologie et micropaléontologie stratigraphique, toujours à Dax ; à partir de cette date, il commence à développer la micropaléontologie et met l'accent sur l'importance de la micropaléontologie en stratigraphie.
+À la Libération, il retrouve son poste de chef de travaux au laboratoire de géologie appliquée. Il est nommé maître de conférences en 1947 et professeur titulaire en 1953. Il enseigne aussi à l'École normale supérieure de Fontenay-aux-Roses de 1939 à 1955, et à l'École nationale supérieure de géologie appliquée de Nancy de 1948 à 1957.
+En 1953 il devient conseiller scientifique à la direction générale de la Société nationale des pétroles d'Aquitaine.
+Il meurt à Bordeaux le 20 septembre 1969.
 </t>
         </is>
       </c>
@@ -559,13 +563,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sociétés savantes</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>président de la Société géologique de France (1956)[1]
-membre honoraire de la Société Géologique de Pologne (1969-)[5]</t>
+          <t>Géologue et paléontologue</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuvillier a créé et longtemps dirigé l’institut de Micropaléontologie à l’université de Paris, où il a formé de nombreux élèves. Sous sa tutelle, l'institut a mis l'accent sur les foraminifères, les ostracodes, les tintinnides, les acritarches, les coccolithes et de nombreux organismes non déterminés.
+Cuvillier s'est particulièrement intéressé à la science des microfaciès. Ses œuvres les plus importantes sont Stratigraphie corrélation by microfacies in Western Aquitaine, Foraminifères d’Aquitaine et Des microfaciès du Paléozoique du Sahara.
+Il est à l'origine du Centre d'études de micropaléontologie appliquée du C.N.R.S..
+En 1955 il crée le laboratoire de micropaléontologie, dans lequel est dispensé un enseignement de 3e cycle.
+La chaire de micropaléontologie est créée pour lui.
+En 1956 il est président de la Société géologique de France, collaborateur principal au Service de la carte géologique de France.
+En 1958, il crée la Revue de micropaléontologie, de diffusion mondiale, publiée par le laboratoire de micropaléontologie de l'Université.
+Les collections de Jean Cuvillier contiennent de nombreux assemblages d'algues calcaréeuses du Paléocène de Libye.
+Il a dirigé des thèses qui elles aussi ont fait date, comme celle de Vincent Sacal (ou Szakall), Microfaciès du Paléozoïque Saharien.
+</t>
         </is>
       </c>
     </row>
@@ -590,10 +608,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Sociétés savantes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>président de la Société géologique de France (1956)
+membre honoraire de la Société Géologique de Pologne (1969-)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Cuvillier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Cuvillier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
